--- a/01_Documentacion/1. Mapa de procesos/G2__MAPA_PROC_V3.xlsx
+++ b/01_Documentacion/1. Mapa de procesos/G2__MAPA_PROC_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\4. Aseguramiento de Calidad\3. Repositorio\2567_G2_ACSW\01_Documentacion\1. Mapa de procesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA919177-4F0A-4319-9016-B67E9677755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216B3F5-C7F1-4593-A3BE-07AD7D138125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
@@ -16210,7 +16210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8B49B5-0ECE-4555-B935-30B61D398401}">
   <dimension ref="C2:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z15" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T111" sqref="T111"/>
     </sheetView>
   </sheetViews>
@@ -16489,20 +16489,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6130c624-bec2-48a0-a4e0-dd56eb2f89c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16701,19 +16701,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF3A800-A648-4ED0-9604-A7A2B88DC5AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1EF6FC-E1A3-4516-8546-CCE0DBDE9A84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1EF6FC-E1A3-4516-8546-CCE0DBDE9A84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF3A800-A648-4ED0-9604-A7A2B88DC5AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6130c624-bec2-48a0-a4e0-dd56eb2f89c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
